--- a/src/dd_properties/testdata1.xlsx
+++ b/src/dd_properties/testdata1.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14610" windowHeight="3900"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14400" windowHeight="3660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="1" r:id="rId1"/>
     <sheet name="Login_Data" sheetId="2" r:id="rId2"/>
     <sheet name="Search_Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:L11"/>
+  <oleSize ref="A1:N10"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>TCID</t>
   </si>
@@ -63,16 +64,55 @@
     <t>password</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>AbdulKalam</t>
+  </si>
+  <si>
+    <t>sonalisonnar1@gmail.com</t>
+  </si>
+  <si>
+    <t>sonali1121992</t>
+  </si>
+  <si>
+    <t>TC_10_verifyTotalNumberOfEMailsReceived</t>
+  </si>
+  <si>
+    <t>TC_12_verify_Emails_MarkedWithStars</t>
+  </si>
+  <si>
+    <t>TC_14_verify_WorkingOfCompose</t>
+  </si>
+  <si>
+    <t>TC_15_verifySearchingOfEmails</t>
+  </si>
+  <si>
+    <t>TC_13_verify_sendingMail</t>
+  </si>
+  <si>
+    <t>TC_16_verify_settingsOfGmail</t>
+  </si>
+  <si>
+    <t>TC_18_verifyEmailsWithAttachments</t>
+  </si>
+  <si>
+    <t>TC_20_verifyAbleToLogOutGmail</t>
+  </si>
+  <si>
+    <t>TC_11_verify_Unread_mails</t>
+  </si>
+  <si>
+    <t>TC_17_verify_CountOfReadMails</t>
+  </si>
+  <si>
+    <t>TC_19_verify_LabelCreation</t>
+  </si>
+  <si>
     <t>sonalisonnar@gmail.com</t>
   </si>
   <si>
     <t>SONNAR1121992</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>AbdulKalam</t>
   </si>
 </sst>
 </file>
@@ -437,15 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -517,6 +557,94 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -530,7 +658,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -549,10 +677,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -568,7 +696,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -578,15 +706,53 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>